--- a/BC71_Nhom6_task.xlsx
+++ b/BC71_Nhom6_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7D79B-9C1C-4E9B-95C0-9CE42C274177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0B718-983B-41E5-8C40-CB1B8C21A9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>Duyên</t>
+  </si>
+  <si>
+    <t>Thành viên:</t>
+  </si>
+  <si>
+    <t>Võ Đỗ Thành Công</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Xuân Duyên</t>
   </si>
 </sst>
 </file>
@@ -100,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +136,29 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -167,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -319,11 +351,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -394,6 +487,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +743,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J978"/>
+  <dimension ref="A1:J977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -867,7 +975,7 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8">
@@ -897,10 +1005,10 @@
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="28">
         <v>45510</v>
       </c>
       <c r="C9" s="18">
@@ -927,10 +1035,10 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="27">
         <v>45510</v>
       </c>
       <c r="C10" s="22">
@@ -959,9 +1067,23 @@
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+    </row>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1923,7 +2045,6 @@
     <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
@@ -1936,6 +2057,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>